--- a/Documents/Version2_evaluation/Draft_metadata_CoreGenericHealth_p2.xlsx
+++ b/Documents/Version2_evaluation/Draft_metadata_CoreGenericHealth_p2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13804CAC-FD12-418D-BD4E-0867C0002F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD269A5F-D925-4C16-B95C-6F721E674A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="481">
   <si>
     <t>Property label</t>
   </si>
@@ -1000,6 +1000,9 @@
     <t>The date the dataset distribution was issued.</t>
   </si>
   <si>
+    <t>The minimum time period resolvable in the dataset distribution.</t>
+  </si>
+  <si>
     <t>rights</t>
   </si>
   <si>
@@ -1046,9 +1049,6 @@
     </r>
   </si>
   <si>
-    <t>The minimum time period resolvable in the dataset distribution.</t>
-  </si>
-  <si>
     <t>A name given to the Distribution</t>
   </si>
   <si>
@@ -1353,9 +1353,6 @@
   </si>
   <si>
     <t>A licence under which the Data service is made available</t>
-  </si>
-  <si>
-    <t>temporal literal</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1437,6 +1434,9 @@
     <t>foaf:mbox</t>
   </si>
   <si>
+    <t>A unique identifier of the agent.</t>
+  </si>
+  <si>
     <t>HRI v1</t>
   </si>
   <si>
@@ -1479,7 +1479,10 @@
     <t>vcard:hasEmail</t>
   </si>
   <si>
-    <t>has name</t>
+    <t>formatted name</t>
+  </si>
+  <si>
+    <t>The full name of the contact point.</t>
   </si>
   <si>
     <t>vcard:fn</t>
@@ -2323,7 +2326,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2366,15 +2368,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2386,6 +2380,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4156,8 +4159,8 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4612,92 +4615,92 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="72.75" customHeight="1">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="141" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="140" t="s">
+      <c r="F15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="G15" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="142" t="s">
+      <c r="I15" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="143" t="s">
+      <c r="J15" s="140" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="137"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="140"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="137"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="140"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="137"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="140"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="137"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="137"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="43.5">
       <c r="A20" s="52" t="s">
@@ -4733,13 +4736,13 @@
       <c r="A21" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="134" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="135" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -6010,13 +6013,13 @@
     </row>
     <row r="2" spans="1:10" ht="29.25">
       <c r="A2" s="100" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>23</v>
@@ -6024,7 +6027,7 @@
       <c r="E2" s="77"/>
       <c r="F2" s="101"/>
       <c r="G2" s="100" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>62</v>
@@ -6038,13 +6041,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.5">
       <c r="A3" s="104" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -6052,10 +6055,10 @@
       <c r="E3" s="83"/>
       <c r="F3" s="105"/>
       <c r="G3" s="106" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I3" s="106" t="s">
         <v>18</v>
@@ -6066,13 +6069,13 @@
     </row>
     <row r="4" spans="1:10" ht="43.5">
       <c r="A4" s="100" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>23</v>
@@ -6080,10 +6083,10 @@
       <c r="E4" s="88"/>
       <c r="F4" s="101"/>
       <c r="G4" s="100" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I4" s="103" t="s">
         <v>18</v>
@@ -6094,13 +6097,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.5">
       <c r="A5" s="104" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>23</v>
@@ -6110,10 +6113,10 @@
       </c>
       <c r="F5" s="105"/>
       <c r="G5" s="104" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I5" s="106" t="s">
         <v>18</v>
@@ -6124,13 +6127,13 @@
     </row>
     <row r="6" spans="1:10" ht="29.25">
       <c r="A6" s="100" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D6" s="75" t="s">
         <v>23</v>
@@ -6141,7 +6144,7 @@
         <v>140</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I6" s="103" t="s">
         <v>18</v>
@@ -6152,13 +6155,13 @@
     </row>
     <row r="7" spans="1:10" ht="43.5">
       <c r="A7" s="104" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D7" s="81" t="s">
         <v>23</v>
@@ -6180,23 +6183,23 @@
     </row>
     <row r="8" spans="1:10" ht="87">
       <c r="A8" s="100" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H8" s="102">
         <v>1</v>
@@ -6210,13 +6213,13 @@
     </row>
     <row r="9" spans="1:10" ht="29.25">
       <c r="A9" s="104" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D9" s="81" t="s">
         <v>23</v>
@@ -6224,7 +6227,7 @@
       <c r="E9" s="83"/>
       <c r="F9" s="105"/>
       <c r="G9" s="106" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H9" s="81" t="s">
         <v>62</v>
@@ -6238,13 +6241,13 @@
     </row>
     <row r="10" spans="1:10" ht="29.25">
       <c r="A10" s="100" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>23</v>
@@ -6254,7 +6257,7 @@
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="100" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H10" s="102" t="s">
         <v>27</v>
@@ -6676,9 +6679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D216357D-42A4-49FA-9AEC-3DDC66FD6459}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7272,11 +7275,13 @@
       </c>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="29.25">
       <c r="A19" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="60" t="s">
+        <v>290</v>
+      </c>
       <c r="C19" s="57" t="s">
         <v>192</v>
       </c>
@@ -7301,25 +7306,25 @@
     </row>
     <row r="20" spans="1:11" ht="43.5">
       <c r="A20" s="52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F20" s="66" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>62</v>
@@ -7337,16 +7342,16 @@
         <v>200</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>202</v>
       </c>
       <c r="D21" s="111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F21" s="61" t="s">
         <v>25</v>
@@ -7370,7 +7375,7 @@
         <v>207</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>209</v>
@@ -7805,8 +7810,8 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8306,13 +8311,13 @@
     </row>
     <row r="17" spans="1:10" ht="29.25">
       <c r="A17" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>332</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>23</v>
@@ -9783,8 +9788,8 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="D21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9987,11 +9992,11 @@
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>23</v>
@@ -10327,7 +10332,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>401</v>
+        <v>140</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>62</v>
@@ -10369,10 +10374,10 @@
     </row>
     <row r="20" spans="1:10" ht="60.75" customHeight="1">
       <c r="A20" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>402</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>403</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>162</v>
@@ -10399,13 +10404,13 @@
     </row>
     <row r="21" spans="1:10" ht="60.75" customHeight="1">
       <c r="A21" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>405</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>406</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>23</v>
@@ -10429,10 +10434,10 @@
     </row>
     <row r="22" spans="1:10" ht="60.75" customHeight="1">
       <c r="A22" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="53" t="s">
         <v>407</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>408</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>213</v>
@@ -10441,7 +10446,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>15</v>
@@ -10464,7 +10469,7 @@
         <v>216</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C23" s="59" t="s">
         <v>218</v>
@@ -10926,9 +10931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F507EB-9201-48ED-BA4A-FAE0A681069A}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10979,16 +10984,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="123"/>
+      <c r="D2" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="122"/>
       <c r="F2" s="78" t="s">
         <v>25</v>
       </c>
@@ -11005,13 +11010,13 @@
     </row>
     <row r="3" spans="1:10" ht="101.25">
       <c r="A3" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>413</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>414</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -11037,7 +11042,9 @@
       <c r="A4" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="75" t="s">
+        <v>414</v>
+      </c>
       <c r="C4" s="75" t="s">
         <v>107</v>
       </c>
@@ -11062,28 +11069,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="29.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
         <v>416</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="123" t="s">
         <v>418</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="124" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -11100,10 +11107,10 @@
       <c r="B6" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="130" t="s">
         <v>169</v>
       </c>
       <c r="E6" s="88" t="s">
@@ -11126,26 +11133,26 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.75">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="123" t="s">
         <v>422</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="123" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="126" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -11771,7 +11778,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{66C46874-C442-43E5-AD72-76E8DA8688C4}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{7FCF1E17-4ED2-4EE1-ADC5-B09B88BC460F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{039E290E-52BD-4FF4-8251-F25A3759F840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11782,8 +11789,8 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11839,7 +11846,7 @@
       <c r="B2" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="129" t="s">
         <v>425</v>
       </c>
       <c r="D2" s="75" t="s">
@@ -11872,7 +11879,7 @@
       <c r="C3" s="81" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="131" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="98"/>
@@ -11896,9 +11903,11 @@
       <c r="A4" s="75" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="76" t="s">
+        <v>430</v>
+      </c>
       <c r="C4" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>23</v>
@@ -12632,10 +12641,10 @@
     </row>
     <row r="2" spans="1:10" ht="43.5">
       <c r="A2" s="76" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="96" t="s">
@@ -12646,7 +12655,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H2" s="80">
         <v>1</v>
@@ -12660,10 +12669,10 @@
     </row>
     <row r="3" spans="1:10" ht="72.75">
       <c r="A3" s="82" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="83" t="s">
@@ -12674,7 +12683,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H3" s="87">
         <v>1</v>
@@ -13345,13 +13354,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="95" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="133" t="s">
         <v>439</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>440</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>23</v>
@@ -13375,13 +13384,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="134" t="s">
         <v>442</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>443</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -13986,15 +13995,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
@@ -14006,7 +14006,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8ef391852eaca4511043a54bffd4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201dd8b781da46d5daa37e3355db44fe" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -14249,14 +14249,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D613DAE5-7C40-407B-A7BA-7F08A27AA56E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D613DAE5-7C40-407B-A7BA-7F08A27AA56E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}"/>
 </file>
--- a/Documents/Version2_evaluation/Draft_metadata_CoreGenericHealth_p2.xlsx
+++ b/Documents/Version2_evaluation/Draft_metadata_CoreGenericHealth_p2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD269A5F-D925-4C16-B95C-6F721E674A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D0DB3C-C856-4F60-BF41-A67CD2C160D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="480">
   <si>
     <t>Property label</t>
   </si>
@@ -1085,304 +1085,301 @@
     <t>A free-text account of the Catalogue</t>
   </si>
   <si>
-    <t>A geographical area covered by the Catalogue</t>
+    <t>has part</t>
+  </si>
+  <si>
+    <t>A related Catalogue that is part of the described Catalogue</t>
+  </si>
+  <si>
+    <t>dct:hasPart</t>
+  </si>
+  <si>
+    <t>home page</t>
+  </si>
+  <si>
+    <t>A web page that acts as the main page for the Catalogue</t>
+  </si>
+  <si>
+    <t>foaf:homepage</t>
+  </si>
+  <si>
+    <t>foaf:Document</t>
+  </si>
+  <si>
+    <t>A language used in the textual metadata describing titles, descriptions, etc. of the Datasets in the Catalogue</t>
+  </si>
+  <si>
+    <t>dct:LinguisticSystem</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>A licence under which the Catalogue can be used or reused.</t>
+  </si>
+  <si>
+    <t>dct:LicenseDocument</t>
+  </si>
+  <si>
+    <t>The most recent date on which the Catalogue was modified</t>
+  </si>
+  <si>
+    <t>An entity (organisation) responsible for making the Catalogue available</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>A Catalogue Record that is part of the Catalogue</t>
+  </si>
+  <si>
+    <t>dcat:record</t>
+  </si>
+  <si>
+    <t>dcat:CatalogRecord</t>
+  </si>
+  <si>
+    <t>The date of formal issuance (e.g., publication) of the Catalogue</t>
+  </si>
+  <si>
+    <t>A statement that specifies rights associated with the Catalogue</t>
+  </si>
+  <si>
+    <t>dct:RightsStatement</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>A site or end-point (Data Service) that is listed in the Catalogue</t>
+  </si>
+  <si>
+    <t>dcat:service</t>
+  </si>
+  <si>
+    <t>A temporal period that the Catalogue covers</t>
+  </si>
+  <si>
+    <t>themes</t>
+  </si>
+  <si>
+    <t>A knowledge organisation system used to classify the Catalogue's Datasets</t>
+  </si>
+  <si>
+    <t>dcat:themeTaxonomy</t>
+  </si>
+  <si>
+    <t>This property refers to a knowledge organisation system used to classify the Catalogue's Datasets. It must have at least the value NAL:data-theme as this is the mandatory controlled vocabulary for dcat:theme.</t>
+  </si>
+  <si>
+    <t>skos:ConceptScheme</t>
+  </si>
+  <si>
+    <t>A name given to the Catalogue</t>
+  </si>
+  <si>
+    <t>A name given to the Dataset Series.</t>
+  </si>
+  <si>
+    <t>This property can be repeated for parallel language versions of the name.</t>
+  </si>
+  <si>
+    <t>A free-text account of the Dataset Series.</t>
+  </si>
+  <si>
+    <t>This property can be repeated for parallel language versions. It is recommended to provide an indication about the dimensions the Dataset Series evolves.</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>dct:relation</t>
+  </si>
+  <si>
+    <t>foaf:Project</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>creator name</t>
+  </si>
+  <si>
+    <t>The most recent date on which the Dataset Series was changed or modified</t>
+  </si>
+  <si>
+    <t>This is not equal to the most recent modified dataset in the collection of the dataset series.</t>
+  </si>
+  <si>
+    <t>The date of formal issuance (e.g., publication) of the Dataset Series</t>
+  </si>
+  <si>
+    <t>The moment when the dataset series was established as a managed resource. This is not equal to the release date of the oldest dataset in the collection of the dataset series.</t>
+  </si>
+  <si>
+    <t>An entity (organisation) responsible for ensuring the coherency of the Dataset Series</t>
+  </si>
+  <si>
+    <t>The publisher of the dataset series may not be the publisher of all datasets. E.g. a digital archive could take over the publishing of older datasets in the series.</t>
+  </si>
+  <si>
+    <t>Contact information that can be used for sending comments about the Dataset Series.</t>
+  </si>
+  <si>
+    <t>applicable legislation</t>
+  </si>
+  <si>
+    <t>The legislation that mandates the creation or management of the Dataset Series</t>
+  </si>
+  <si>
+    <t>The frequency at which the Dataset Series is updated</t>
+  </si>
+  <si>
+    <t>The frequency of a dataset series is not equal to the frequency of the dataset in the collection.</t>
+  </si>
+  <si>
+    <t>dct:Frequency</t>
+  </si>
+  <si>
+    <t>geographial coverage</t>
+  </si>
+  <si>
+    <t>A geographic region that is covered by the Dataset Series.</t>
+  </si>
+  <si>
+    <t>When spatial coverage is a dimension in the dataset series then the spatial coverage of each dataset in the collection should be part of the spatial coverage. In that case, an open ended value is recommended, e.g. EU or a broad bounding box covering the expected values.</t>
+  </si>
+  <si>
+    <t>dcatap:Location</t>
+  </si>
+  <si>
+    <t>A temporal period that the Dataset Series covers</t>
+  </si>
+  <si>
+    <t>When temporal coverage is a dimension in the dataset series then the temporal coverage of each dataset in the collection should be part of the temporal coverage. In that case, an open ended value is recommended, e.g. after 2012.</t>
+  </si>
+  <si>
+    <t>Access Rights</t>
+  </si>
+  <si>
+    <t>Information regarding access or restrictions based on privacy, security, or other policies</t>
+  </si>
+  <si>
+    <t>The legislation that mandates the creation or management of the Data Service</t>
+  </si>
+  <si>
+    <t>application profile</t>
+  </si>
+  <si>
+    <t>An established (technical) standard to which the Data Service conforms</t>
+  </si>
+  <si>
+    <t>The standards referred here SHOULD describe the Data Service and not the data it serves. The latter is provided by the dataset with which this Data Service is connected. For instance the data service adheres to the OGC WFS API standard, while the associated dataset adheres to the INSPIRE Address data model.</t>
+  </si>
+  <si>
+    <t>dct:Standard</t>
+  </si>
+  <si>
+    <t>Contact Point</t>
+  </si>
+  <si>
+    <t>Contact information that can be used for sending comments about the Data Service</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A free-text account of the Data Service</t>
+  </si>
+  <si>
+    <t>end point description</t>
+  </si>
+  <si>
+    <t>A description of the services available via the end-points, including their operations, parameters etc.</t>
+  </si>
+  <si>
+    <t>dcat:endpointDescription</t>
+  </si>
+  <si>
+    <t>The property gives specific details of the actual endpoint instances, while dct:conformsTo is used to indicate the general standard or specification that the endpoints implement.</t>
+  </si>
+  <si>
+    <t>end point URL</t>
+  </si>
+  <si>
+    <t>The root location or primary endpoint of the service (an IRI).</t>
+  </si>
+  <si>
+    <t>dcat:endPointURL</t>
+  </si>
+  <si>
+    <t>The structure that can be returned by querying the endpointURL</t>
+  </si>
+  <si>
+    <t>dct:MediaTypeOrExtent</t>
+  </si>
+  <si>
+    <t>HVD Category</t>
+  </si>
+  <si>
+    <t>dcatap:hvdCategory</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>A keyword or tag describing the Data Service.</t>
+  </si>
+  <si>
+    <t>landing Page</t>
+  </si>
+  <si>
+    <t>A web page that provides access to the Data Service and/or additional information</t>
+  </si>
+  <si>
+    <t>dcat:landingPage</t>
+  </si>
+  <si>
+    <t>It is intended to point to a landing page at the original data service provider, not to a page on a site of a third party, such as an aggregator.</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>A licence under which the Data service is made available</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>An entity (organisation) responsible for making the Data Service available</t>
+  </si>
+  <si>
+    <t>serves dataset</t>
+  </si>
+  <si>
+    <t>This property refers to a collection of data that this data service can distribute</t>
+  </si>
+  <si>
+    <t>dcat:servesDataset</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>A category of the Data Service</t>
+  </si>
+  <si>
+    <t>A Data Service may be associated with multiple themes.</t>
+  </si>
+  <si>
+    <t>A name given to the Data Service.</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
   <si>
     <t>dct:Location</t>
-  </si>
-  <si>
-    <t>has part</t>
-  </si>
-  <si>
-    <t>A related Catalogue that is part of the described Catalogue</t>
-  </si>
-  <si>
-    <t>dct:hasPart</t>
-  </si>
-  <si>
-    <t>home page</t>
-  </si>
-  <si>
-    <t>A web page that acts as the main page for the Catalogue</t>
-  </si>
-  <si>
-    <t>foaf:homepage</t>
-  </si>
-  <si>
-    <t>foaf:Document</t>
-  </si>
-  <si>
-    <t>A language used in the textual metadata describing titles, descriptions, etc. of the Datasets in the Catalogue</t>
-  </si>
-  <si>
-    <t>dct:LinguisticSystem</t>
-  </si>
-  <si>
-    <t>licence</t>
-  </si>
-  <si>
-    <t>A licence under which the Catalogue can be used or reused.</t>
-  </si>
-  <si>
-    <t>dct:LicenseDocument</t>
-  </si>
-  <si>
-    <t>The most recent date on which the Catalogue was modified</t>
-  </si>
-  <si>
-    <t>An entity (organisation) responsible for making the Catalogue available</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>A Catalogue Record that is part of the Catalogue</t>
-  </si>
-  <si>
-    <t>dcat:record</t>
-  </si>
-  <si>
-    <t>dcat:CatalogRecord</t>
-  </si>
-  <si>
-    <t>The date of formal issuance (e.g., publication) of the Catalogue</t>
-  </si>
-  <si>
-    <t>A statement that specifies rights associated with the Catalogue</t>
-  </si>
-  <si>
-    <t>dct:RightsStatement</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>A site or end-point (Data Service) that is listed in the Catalogue</t>
-  </si>
-  <si>
-    <t>dcat:service</t>
-  </si>
-  <si>
-    <t>A temporal period that the Catalogue covers</t>
-  </si>
-  <si>
-    <t>themes</t>
-  </si>
-  <si>
-    <t>A knowledge organisation system used to classify the Catalogue's Datasets</t>
-  </si>
-  <si>
-    <t>dcat:themeTaxonomy</t>
-  </si>
-  <si>
-    <t>This property refers to a knowledge organisation system used to classify the Catalogue's Datasets. It must have at least the value NAL:data-theme as this is the mandatory controlled vocabulary for dcat:theme.</t>
-  </si>
-  <si>
-    <t>skos:ConceptScheme</t>
-  </si>
-  <si>
-    <t>A name given to the Catalogue</t>
-  </si>
-  <si>
-    <t>A name given to the Dataset Series.</t>
-  </si>
-  <si>
-    <t>This property can be repeated for parallel language versions of the name.</t>
-  </si>
-  <si>
-    <t>A free-text account of the Dataset Series.</t>
-  </si>
-  <si>
-    <t>This property can be repeated for parallel language versions. It is recommended to provide an indication about the dimensions the Dataset Series evolves.</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>dct:relation</t>
-  </si>
-  <si>
-    <t>foaf:Project</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-  </si>
-  <si>
-    <t>creator name</t>
-  </si>
-  <si>
-    <t>The most recent date on which the Dataset Series was changed or modified</t>
-  </si>
-  <si>
-    <t>This is not equal to the most recent modified dataset in the collection of the dataset series.</t>
-  </si>
-  <si>
-    <t>The date of formal issuance (e.g., publication) of the Dataset Series</t>
-  </si>
-  <si>
-    <t>The moment when the dataset series was established as a managed resource. This is not equal to the release date of the oldest dataset in the collection of the dataset series.</t>
-  </si>
-  <si>
-    <t>An entity (organisation) responsible for ensuring the coherency of the Dataset Series</t>
-  </si>
-  <si>
-    <t>The publisher of the dataset series may not be the publisher of all datasets. E.g. a digital archive could take over the publishing of older datasets in the series.</t>
-  </si>
-  <si>
-    <t>Contact information that can be used for sending comments about the Dataset Series.</t>
-  </si>
-  <si>
-    <t>applicable legislation</t>
-  </si>
-  <si>
-    <t>The legislation that mandates the creation or management of the Dataset Series</t>
-  </si>
-  <si>
-    <t>The frequency at which the Dataset Series is updated</t>
-  </si>
-  <si>
-    <t>The frequency of a dataset series is not equal to the frequency of the dataset in the collection.</t>
-  </si>
-  <si>
-    <t>dct:Frequency</t>
-  </si>
-  <si>
-    <t>geographial coverage</t>
-  </si>
-  <si>
-    <t>A geographic region that is covered by the Dataset Series.</t>
-  </si>
-  <si>
-    <t>When spatial coverage is a dimension in the dataset series then the spatial coverage of each dataset in the collection should be part of the spatial coverage. In that case, an open ended value is recommended, e.g. EU or a broad bounding box covering the expected values.</t>
-  </si>
-  <si>
-    <t>dcatap:Location</t>
-  </si>
-  <si>
-    <t>A temporal period that the Dataset Series covers</t>
-  </si>
-  <si>
-    <t>When temporal coverage is a dimension in the dataset series then the temporal coverage of each dataset in the collection should be part of the temporal coverage. In that case, an open ended value is recommended, e.g. after 2012.</t>
-  </si>
-  <si>
-    <t>Access Rights</t>
-  </si>
-  <si>
-    <t>Information regarding access or restrictions based on privacy, security, or other policies</t>
-  </si>
-  <si>
-    <t>The legislation that mandates the creation or management of the Data Service</t>
-  </si>
-  <si>
-    <t>application profile</t>
-  </si>
-  <si>
-    <t>An established (technical) standard to which the Data Service conforms</t>
-  </si>
-  <si>
-    <t>The standards referred here SHOULD describe the Data Service and not the data it serves. The latter is provided by the dataset with which this Data Service is connected. For instance the data service adheres to the OGC WFS API standard, while the associated dataset adheres to the INSPIRE Address data model.</t>
-  </si>
-  <si>
-    <t>dct:Standard</t>
-  </si>
-  <si>
-    <t>Contact Point</t>
-  </si>
-  <si>
-    <t>Contact information that can be used for sending comments about the Data Service</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>A free-text account of the Data Service</t>
-  </si>
-  <si>
-    <t>end point description</t>
-  </si>
-  <si>
-    <t>A description of the services available via the end-points, including their operations, parameters etc.</t>
-  </si>
-  <si>
-    <t>dcat:endpointDescription</t>
-  </si>
-  <si>
-    <t>The property gives specific details of the actual endpoint instances, while dct:conformsTo is used to indicate the general standard or specification that the endpoints implement.</t>
-  </si>
-  <si>
-    <t>end point URL</t>
-  </si>
-  <si>
-    <t>The root location or primary endpoint of the service (an IRI).</t>
-  </si>
-  <si>
-    <t>dcat:endPointURL</t>
-  </si>
-  <si>
-    <t>The structure that can be returned by querying the endpointURL</t>
-  </si>
-  <si>
-    <t>dct:MediaTypeOrExtent</t>
-  </si>
-  <si>
-    <t>HVD Category</t>
-  </si>
-  <si>
-    <t>dcatap:hvdCategory</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>A keyword or tag describing the Data Service.</t>
-  </si>
-  <si>
-    <t>landing Page</t>
-  </si>
-  <si>
-    <t>A web page that provides access to the Data Service and/or additional information</t>
-  </si>
-  <si>
-    <t>dcat:landingPage</t>
-  </si>
-  <si>
-    <t>It is intended to point to a landing page at the original data service provider, not to a page on a site of a third party, such as an aggregator.</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>A licence under which the Data service is made available</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>An entity (organisation) responsible for making the Data Service available</t>
-  </si>
-  <si>
-    <t>serves dataset</t>
-  </si>
-  <si>
-    <t>This property refers to a collection of data that this data service can distribute</t>
-  </si>
-  <si>
-    <t>dcat:servesDataset</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>A category of the Data Service</t>
-  </si>
-  <si>
-    <t>A Data Service may be associated with multiple themes.</t>
-  </si>
-  <si>
-    <t>A name given to the Data Service.</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
   <si>
     <t>email</t>
@@ -1963,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2390,12 +2387,37 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="153">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3063,6 +3085,106 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5875,42 +5997,42 @@
     <mergeCell ref="F15:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 F1:F15 F20:F57">
-    <cfRule type="cellIs" dxfId="142" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="15" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="16" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H15 H20:H57">
-    <cfRule type="cellIs" dxfId="138" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="13" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15 F20:F57">
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 J20:J57">
-    <cfRule type="containsText" dxfId="135" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="145" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 J20:J57">
-    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6013,13 +6135,13 @@
     </row>
     <row r="2" spans="1:10" ht="29.25">
       <c r="A2" s="100" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="C2" s="76" t="s">
         <v>445</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>446</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>23</v>
@@ -6027,7 +6149,7 @@
       <c r="E2" s="77"/>
       <c r="F2" s="101"/>
       <c r="G2" s="100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>62</v>
@@ -6041,13 +6163,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.5">
       <c r="A3" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>449</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>450</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -6055,10 +6177,10 @@
       <c r="E3" s="83"/>
       <c r="F3" s="105"/>
       <c r="G3" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="H3" s="81" t="s">
         <v>451</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>452</v>
       </c>
       <c r="I3" s="106" t="s">
         <v>18</v>
@@ -6069,13 +6191,13 @@
     </row>
     <row r="4" spans="1:10" ht="43.5">
       <c r="A4" s="100" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="C4" s="76" t="s">
         <v>454</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>455</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>23</v>
@@ -6083,10 +6205,10 @@
       <c r="E4" s="88"/>
       <c r="F4" s="101"/>
       <c r="G4" s="100" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" s="102" t="s">
         <v>456</v>
-      </c>
-      <c r="H4" s="102" t="s">
-        <v>457</v>
       </c>
       <c r="I4" s="103" t="s">
         <v>18</v>
@@ -6097,13 +6219,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.5">
       <c r="A5" s="104" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="83" t="s">
         <v>458</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>459</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>460</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>23</v>
@@ -6113,10 +6235,10 @@
       </c>
       <c r="F5" s="105"/>
       <c r="G5" s="104" t="s">
+        <v>460</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>461</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>462</v>
       </c>
       <c r="I5" s="106" t="s">
         <v>18</v>
@@ -6127,13 +6249,13 @@
     </row>
     <row r="6" spans="1:10" ht="29.25">
       <c r="A6" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="110" t="s">
         <v>463</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="C6" s="76" t="s">
         <v>464</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>465</v>
       </c>
       <c r="D6" s="75" t="s">
         <v>23</v>
@@ -6144,7 +6266,7 @@
         <v>140</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I6" s="103" t="s">
         <v>18</v>
@@ -6155,13 +6277,13 @@
     </row>
     <row r="7" spans="1:10" ht="43.5">
       <c r="A7" s="104" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="83" t="s">
         <v>466</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="C7" s="82" t="s">
         <v>467</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>468</v>
       </c>
       <c r="D7" s="81" t="s">
         <v>23</v>
@@ -6183,23 +6305,23 @@
     </row>
     <row r="8" spans="1:10" ht="87">
       <c r="A8" s="100" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="88" t="s">
         <v>469</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="C8" s="76" t="s">
         <v>470</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>471</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H8" s="102">
         <v>1</v>
@@ -6213,13 +6335,13 @@
     </row>
     <row r="9" spans="1:10" ht="29.25">
       <c r="A9" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>475</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>476</v>
       </c>
       <c r="D9" s="81" t="s">
         <v>23</v>
@@ -6227,7 +6349,7 @@
       <c r="E9" s="83"/>
       <c r="F9" s="105"/>
       <c r="G9" s="106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H9" s="81" t="s">
         <v>62</v>
@@ -6241,23 +6363,23 @@
     </row>
     <row r="10" spans="1:10" ht="29.25">
       <c r="A10" s="100" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="109" t="s">
         <v>478</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="C10" s="76" t="s">
         <v>479</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>480</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="100" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H10" s="102" t="s">
         <v>27</v>
@@ -7729,42 +7851,42 @@
     <sortCondition ref="A2:A23"/>
   </sortState>
   <conditionalFormatting sqref="H1:I1 F1:F53">
-    <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="7" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="8" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="10" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H53">
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F53">
-    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="135" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="123" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7807,11 +7929,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD98AC81-9A7A-4660-B571-6D118AEA29BA}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8039,178 +8161,116 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="29.25">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="140"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="145"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="145"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="140"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="145"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="140"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="55" t="s">
+      <c r="B13" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29.25">
-      <c r="A9" s="57" t="s">
+      <c r="C13" s="57" t="s">
         <v>313</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29.25">
-      <c r="A10" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.5">
-      <c r="A11" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29.25">
-      <c r="A12" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="29.25">
-      <c r="A13" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>139</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="117" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>18</v>
@@ -8219,55 +8279,55 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>162</v>
+        <v>315</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>316</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66" t="s">
-        <v>15</v>
+      <c r="E14" s="144"/>
+      <c r="F14" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="56">
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="57" t="s">
-        <v>327</v>
+        <v>120</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="118"/>
+      <c r="F15" s="62" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>27</v>
@@ -8279,25 +8339,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>23</v>
+        <v>321</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="E16" s="65"/>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="66" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>62</v>
@@ -8311,23 +8371,23 @@
     </row>
     <row r="17" spans="1:10" ht="29.25">
       <c r="A17" s="57" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="62" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>62</v>
@@ -8341,29 +8401,29 @@
     </row>
     <row r="18" spans="1:10" ht="29.25">
       <c r="A18" s="52" t="s">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>336</v>
+        <v>324</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>162</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="55" t="s">
-        <v>25</v>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="H18" s="56">
+        <v>1</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>69</v>
@@ -8371,23 +8431,23 @@
     </row>
     <row r="19" spans="1:10" ht="29.25">
       <c r="A19" s="57" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="62" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="61" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>27</v>
@@ -8399,30 +8459,28 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="57.75">
+    <row r="20" spans="1:10" ht="29.25">
       <c r="A20" s="52" t="s">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>340</v>
+        <v>329</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>341</v>
-      </c>
-      <c r="F20" s="66" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="67" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>18</v>
@@ -8431,91 +8489,174 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="29.25">
       <c r="A21" s="57" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61" t="s">
-        <v>15</v>
+      <c r="E21" s="68"/>
+      <c r="F21" s="62" t="s">
+        <v>25</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+    <row r="22" spans="1:10" ht="29.25">
+      <c r="A22" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="72"/>
+      <c r="F22" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.25">
+      <c r="A23" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="118"/>
+      <c r="F23" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.75">
+      <c r="A24" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
+      <c r="A25" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="52"/>
-      <c r="E27" s="65"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="66"/>
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
@@ -8526,7 +8667,7 @@
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
     </row>
@@ -8535,8 +8676,8 @@
       <c r="B29" s="53"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="66"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="56"/>
     </row>
@@ -8544,19 +8685,18 @@
       <c r="A30" s="52"/>
       <c r="B30" s="53"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="67"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="55"/>
       <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="52"/>
       <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
       <c r="D31" s="52"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="55"/>
       <c r="H31" s="56"/>
     </row>
@@ -8565,16 +8705,17 @@
       <c r="B32" s="53"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="55"/>
       <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="52"/>
       <c r="B33" s="53"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="52"/>
-      <c r="E33" s="65"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="66"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56"/>
@@ -8583,9 +8724,9 @@
       <c r="A34" s="52"/>
       <c r="B34" s="53"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="55"/>
       <c r="H34" s="56"/>
     </row>
@@ -8594,8 +8735,8 @@
       <c r="B35" s="53"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="66"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="55"/>
       <c r="H35" s="56"/>
     </row>
@@ -8604,18 +8745,17 @@
       <c r="B36" s="53"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="67"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="55"/>
       <c r="H36" s="56"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="55"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="55"/>
       <c r="H37" s="56"/>
     </row>
@@ -8664,16 +8804,17 @@
       <c r="B42" s="53"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="55"/>
       <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="52"/>
       <c r="B43" s="53"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="52"/>
-      <c r="E43" s="65"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="66"/>
       <c r="G43" s="55"/>
       <c r="H43" s="56"/>
@@ -8684,7 +8825,7 @@
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
       <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="55"/>
       <c r="H44" s="56"/>
     </row>
@@ -8692,9 +8833,9 @@
       <c r="A45" s="52"/>
       <c r="B45" s="53"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="66"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="56"/>
     </row>
@@ -8703,18 +8844,17 @@
       <c r="B46" s="53"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="67"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="55"/>
       <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="52"/>
       <c r="B47" s="53"/>
-      <c r="C47" s="52"/>
       <c r="D47" s="52"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="55"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="55"/>
       <c r="H47" s="56"/>
     </row>
@@ -8723,8 +8863,8 @@
       <c r="B48" s="53"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="55"/>
       <c r="H48" s="56"/>
     </row>
@@ -8734,7 +8874,7 @@
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
       <c r="E49" s="53"/>
-      <c r="F49" s="55"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="55"/>
       <c r="H49" s="56"/>
     </row>
@@ -8742,18 +8882,19 @@
       <c r="A50" s="52"/>
       <c r="B50" s="53"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="74"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="65"/>
-      <c r="F50" s="55"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="55"/>
       <c r="H50" s="56"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="52"/>
       <c r="B51" s="53"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="52"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="55"/>
       <c r="H51" s="56"/>
     </row>
@@ -8762,7 +8903,7 @@
       <c r="B52" s="53"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="65"/>
+      <c r="E52" s="53"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="56"/>
@@ -8772,16 +8913,106 @@
       <c r="B53" s="53"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="65"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="56"/>
     </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="56"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="56"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="56"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="56"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
-  <conditionalFormatting sqref="H1:I1 F1:F53">
+  <mergeCells count="9">
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:I1 F1:F7 F13:F57">
+    <cfRule type="cellIs" dxfId="132" priority="17" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="19" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="20" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H7 H13:H57">
+    <cfRule type="cellIs" dxfId="128" priority="15" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="16" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7 F13:F57">
+    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J7 J13:J57">
+    <cfRule type="containsText" dxfId="125" priority="12" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J7 J13:J57">
+    <cfRule type="containsText" dxfId="123" priority="11" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
@@ -8795,7 +9026,7 @@
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H53">
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="118" priority="5" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
@@ -8803,50 +9034,55 @@
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F53">
+  <conditionalFormatting sqref="F8">
     <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J53">
+  <conditionalFormatting sqref="J8">
     <cfRule type="containsText" dxfId="115" priority="2" operator="containsText" text="HealthDCAT-AP">
-      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="DCAT-AP NL">
-      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J53">
+  <conditionalFormatting sqref="J8">
     <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Health and NL">
-      <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47:H49 H24:H38 H2:H22" xr:uid="{2A32C7D3-75FA-463A-BF68-3B76762746E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:H53 H28:H42 H2:H8 H13:H26" xr:uid="{2A32C7D3-75FA-463A-BF68-3B76762746E5}">
       <formula1>"0..n, 0..1, 1, 1..n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{5E2451C1-1FA6-42BF-907E-0BF14F90289A}">
       <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49" xr:uid="{C9CBD033-88AB-4840-B5DC-D786E0636705}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J26:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{4FA88F03-C3E1-4A61-AEAF-7DC76A65E608}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F13:F53" xr:uid="{C9CBD033-88AB-4840-B5DC-D786E0636705}">
       <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
-      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I13:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
       <formula1>"Identical to v1, Adapted from v1, new"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{4FA88F03-C3E1-4A61-AEAF-7DC76A65E608}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21" xr:uid="{924923CF-D332-45CE-8F54-FF1AFD8AFC9D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 J13:J25" xr:uid="{924923CF-D332-45CE-8F54-FF1AFD8AFC9D}">
       <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1, Health and NL"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" location="terms-publisher" xr:uid="{402E0331-C7FD-45DA-B86E-19A2B3FA6EAF}"/>
-    <hyperlink ref="C21" r:id="rId2" location="terms-title" xr:uid="{BD8E3CB4-1EC3-4556-A50A-36927CAF3730}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{F932A3CB-8EFE-4EC8-A866-9D436156378C}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{2EDA5537-713B-44F0-B95C-EC0FE870CDC4}"/>
+    <hyperlink ref="C18" r:id="rId1" location="terms-publisher" xr:uid="{402E0331-C7FD-45DA-B86E-19A2B3FA6EAF}"/>
+    <hyperlink ref="C25" r:id="rId2" location="terms-title" xr:uid="{BD8E3CB4-1EC3-4556-A50A-36927CAF3730}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{2EDA5537-713B-44F0-B95C-EC0FE870CDC4}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{F932A3CB-8EFE-4EC8-A866-9D436156378C}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{336390E3-C494-4C9F-BD85-4BDA269484A0}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{34DE2D61-6E14-42AE-9558-EE775580236F}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{97F9B13C-EFF8-43D1-B733-46E03E4766B7}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{2DAE281E-1462-4EB6-B349-CF7B6187324F}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{80F65FCA-B4F6-4123-A840-F242D8504306}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8912,14 +9148,14 @@
         <v>216</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>218</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>15</v>
@@ -8938,14 +9174,14 @@
         <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>15</v>
@@ -8961,11 +9197,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="41"/>
@@ -8973,7 +9209,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="3"/>
@@ -9015,7 +9251,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H6" s="35">
         <v>1</v>
@@ -9025,7 +9261,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="44" t="s">
@@ -9050,14 +9286,14 @@
         <v>137</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>25</v>
@@ -9076,14 +9312,14 @@
         <v>187</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>25</v>
@@ -9124,14 +9360,14 @@
         <v>160</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>15</v>
@@ -9150,7 +9386,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>50</v>
@@ -9171,10 +9407,10 @@
     </row>
     <row r="13" spans="1:10" ht="43.5">
       <c r="A13" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>31</v>
@@ -9198,7 +9434,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>80</v>
@@ -9207,13 +9443,13 @@
         <v>81</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>62</v>
@@ -9223,23 +9459,23 @@
     </row>
     <row r="15" spans="1:10" ht="72">
       <c r="A15" s="37" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>27</v>
@@ -9252,14 +9488,14 @@
         <v>204</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>25</v>
@@ -9840,10 +10076,10 @@
     </row>
     <row r="2" spans="1:10" ht="60.75" customHeight="1">
       <c r="A2" s="52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>12</v>
@@ -9858,7 +10094,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H2" s="56">
         <v>1</v>
@@ -9875,7 +10111,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>31</v>
@@ -9902,10 +10138,10 @@
     </row>
     <row r="4" spans="1:10" ht="60.75" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>47</v>
@@ -9914,13 +10150,13 @@
         <v>23</v>
       </c>
       <c r="E4" s="121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>27</v>
@@ -9934,10 +10170,10 @@
     </row>
     <row r="5" spans="1:10" ht="60.75" customHeight="1">
       <c r="A5" s="57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>50</v>
@@ -10006,7 +10242,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>27</v>
@@ -10020,10 +10256,10 @@
     </row>
     <row r="8" spans="1:10" ht="60.75" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>66</v>
@@ -10050,19 +10286,19 @@
     </row>
     <row r="9" spans="1:10" ht="60.75" customHeight="1">
       <c r="A9" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>382</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>384</v>
       </c>
       <c r="D9" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>25</v>
@@ -10082,13 +10318,13 @@
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>386</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>388</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>23</v>
@@ -10115,7 +10351,7 @@
         <v>267</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>269</v>
@@ -10128,7 +10364,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>27</v>
@@ -10142,11 +10378,11 @@
     </row>
     <row r="12" spans="1:10" ht="60.75" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="52" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>23</v>
@@ -10170,7 +10406,7 @@
     </row>
     <row r="13" spans="1:10" ht="81.75" customHeight="1">
       <c r="A13" s="57" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="59" t="s">
@@ -10201,7 +10437,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>119</v>
@@ -10228,25 +10464,25 @@
     </row>
     <row r="15" spans="1:10" ht="60.75" customHeight="1">
       <c r="A15" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>395</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>397</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F15" s="117" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>27</v>
@@ -10288,10 +10524,10 @@
     </row>
     <row r="17" spans="1:10" ht="60.75" customHeight="1">
       <c r="A17" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>276</v>
@@ -10304,7 +10540,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -10374,10 +10610,10 @@
     </row>
     <row r="20" spans="1:10" ht="60.75" customHeight="1">
       <c r="A20" s="52" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>162</v>
@@ -10404,13 +10640,13 @@
     </row>
     <row r="21" spans="1:10" ht="60.75" customHeight="1">
       <c r="A21" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>403</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>405</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>23</v>
@@ -10434,10 +10670,10 @@
     </row>
     <row r="22" spans="1:10" ht="60.75" customHeight="1">
       <c r="A22" s="52" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>213</v>
@@ -10446,7 +10682,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>15</v>
@@ -10469,7 +10705,7 @@
         <v>216</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C23" s="59" t="s">
         <v>218</v>
@@ -10984,7 +11220,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="75" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="75" t="s">
@@ -10998,7 +11234,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="H2" s="79" t="s">
         <v>27</v>
@@ -11010,13 +11246,13 @@
     </row>
     <row r="3" spans="1:10" ht="101.25">
       <c r="A3" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>412</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>413</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -11043,7 +11279,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>107</v>
@@ -11065,24 +11301,24 @@
         <v>58</v>
       </c>
       <c r="J4" s="80" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29.25">
       <c r="A5" s="123" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="123" t="s">
         <v>417</v>
-      </c>
-      <c r="C5" s="123" t="s">
-        <v>418</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="125" t="s">
         <v>15</v>
@@ -11105,7 +11341,7 @@
         <v>219</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" s="129" t="s">
         <v>221</v>
@@ -11114,7 +11350,7 @@
         <v>169</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>25</v>
@@ -11134,13 +11370,13 @@
     </row>
     <row r="7" spans="1:10" ht="57.75">
       <c r="A7" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>423</v>
-      </c>
       <c r="C7" s="123" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D7" s="123" t="s">
         <v>23</v>
@@ -11841,13 +12077,13 @@
     </row>
     <row r="2" spans="1:10" ht="57.75">
       <c r="A2" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="129" t="s">
         <v>424</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>425</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>23</v>
@@ -11871,13 +12107,13 @@
     </row>
     <row r="3" spans="1:10" ht="29.25">
       <c r="A3" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>427</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>428</v>
       </c>
       <c r="D3" s="131" t="s">
         <v>23</v>
@@ -11901,13 +12137,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>430</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>431</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>23</v>
@@ -11917,7 +12153,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H4" s="79">
         <v>1</v>
@@ -12641,10 +12877,10 @@
     </row>
     <row r="2" spans="1:10" ht="43.5">
       <c r="A2" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="94" t="s">
         <v>432</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>433</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="96" t="s">
@@ -12655,7 +12891,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H2" s="80">
         <v>1</v>
@@ -12669,10 +12905,10 @@
     </row>
     <row r="3" spans="1:10" ht="72.75">
       <c r="A3" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>435</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>436</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="83" t="s">
@@ -12683,7 +12919,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H3" s="87">
         <v>1</v>
@@ -13354,13 +13590,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="C2" s="132" t="s">
         <v>439</v>
-      </c>
-      <c r="C2" s="132" t="s">
-        <v>440</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>23</v>
@@ -13384,13 +13620,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C3" s="133" t="s">
         <v>442</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>443</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>

--- a/Documents/Version2_evaluation/Draft_metadata_CoreGenericHealth_p2.xlsx
+++ b/Documents/Version2_evaluation/Draft_metadata_CoreGenericHealth_p2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D0DB3C-C856-4F60-BF41-A67CD2C160D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{735FEB42-B137-40B3-9D45-9D534792F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,13 @@
     <sheet name="Catalogue" sheetId="4" r:id="rId3"/>
     <sheet name="DatasetSeries" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="DataService" sheetId="6" r:id="rId5"/>
-    <sheet name="Agent" sheetId="7" r:id="rId6"/>
-    <sheet name="Kind" sheetId="8" r:id="rId7"/>
-    <sheet name="Checksum" sheetId="11" r:id="rId8"/>
-    <sheet name="PeriodOfTime" sheetId="9" r:id="rId9"/>
-    <sheet name="CatalogueRecord" sheetId="10" r:id="rId10"/>
+    <sheet name="Project" sheetId="13" r:id="rId6"/>
+    <sheet name="Study" sheetId="12" r:id="rId7"/>
+    <sheet name="Agent" sheetId="7" r:id="rId8"/>
+    <sheet name="Kind" sheetId="8" r:id="rId9"/>
+    <sheet name="Checksum" sheetId="11" r:id="rId10"/>
+    <sheet name="PeriodOfTime" sheetId="9" r:id="rId11"/>
+    <sheet name="CatalogueRecord" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$F$1:$F$70</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="500">
   <si>
     <t>Property label</t>
   </si>
@@ -1085,6 +1087,12 @@
     <t>A free-text account of the Catalogue</t>
   </si>
   <si>
+    <t>A geographical area covered by the Catalogue</t>
+  </si>
+  <si>
+    <t>dct:Location</t>
+  </si>
+  <si>
     <t>has part</t>
   </si>
   <si>
@@ -1376,10 +1384,64 @@
     <t>A name given to the Data Service.</t>
   </si>
   <si>
+    <t>A free-text account of the Project.</t>
+  </si>
+  <si>
+    <t>A unique identifier of the project.</t>
+  </si>
+  <si>
+    <t>Catalogue</t>
+  </si>
+  <si>
+    <t>dcat:resource</t>
+  </si>
+  <si>
+    <t>funder</t>
+  </si>
+  <si>
+    <t>The funding agent providing funding for the project</t>
+  </si>
+  <si>
+    <t>foaf:fundedBy</t>
+  </si>
+  <si>
+    <t>A title of the project</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>A study that is performed in the context of the project.</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>The dataset that was generated as a result of this study.</t>
+  </si>
+  <si>
+    <t>prov:generated</t>
+  </si>
+  <si>
+    <t>A free text desription of the study.</t>
+  </si>
+  <si>
+    <t>A unique identifier of the study.</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>The project of which this study is a part.</t>
+  </si>
+  <si>
+    <t>dct:isPartOf</t>
+  </si>
+  <si>
+    <t>The title of the study.</t>
+  </si>
+  <si>
     <t>country</t>
-  </si>
-  <si>
-    <t>dct:Location</t>
   </si>
   <si>
     <t>email</t>
@@ -1960,7 +2022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2366,6 +2428,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2387,37 +2450,61 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="173">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3085,6 +3172,206 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4737,92 +5024,92 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="72.75" customHeight="1">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="142" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="F15" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="137" t="s">
+      <c r="G15" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="139" t="s">
+      <c r="I15" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="140" t="s">
+      <c r="J15" s="141" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="141"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="141"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="140"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="141"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="141"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="140"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="141"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="140"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="141"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="141"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="43.5">
       <c r="A20" s="52" t="s">
@@ -5997,42 +6284,42 @@
     <mergeCell ref="F15:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 F1:F15 F20:F57">
-    <cfRule type="cellIs" dxfId="152" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="15" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="16" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="17" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="18" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H15 H20:H57">
-    <cfRule type="cellIs" dxfId="148" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="13" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="14" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15 F20:F57">
-    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 J20:J57">
-    <cfRule type="containsText" dxfId="145" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="165" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="164" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 J20:J57">
-    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="163" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6078,6 +6365,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED35DC-FECA-41E4-9CA3-956572264BDD}">
+  <dimension ref="A1:J52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.75">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5">
+      <c r="A2" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>453</v>
+      </c>
+      <c r="H2" s="80">
+        <v>1</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72.75">
+      <c r="A3" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="87">
+        <v>1</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="22"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="17"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="17"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="17"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="17"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="17"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="17"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="17"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="17"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J3">
+    <sortCondition ref="A2:A3"/>
+  </sortState>
+  <conditionalFormatting sqref="H1:I1 F1 F4:F52">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H52 H4:H9 H11:H15 H17:H25 H27:H41">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E42">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B42">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F52">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3 E2:E3">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F2:F3" xr:uid="{B60965F0-C158-4FE2-A83E-31FA6BACB63D}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H52 H27:H41 H11:H15 H17:H25 H4:H9" xr:uid="{91D2842D-234C-41A8-B9AC-B1C1BA0028BA}">
+      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576 I2:I3" xr:uid="{88F23685-CF60-4089-9C10-A94C84E53503}">
+      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576 J2:J3" xr:uid="{1E2B4D28-FB95-46C5-89A7-019BD612914E}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F52 E2:E3" xr:uid="{A14FBDED-822B-4EF3-906E-97784B24FE1D}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{A2706E80-B178-4A4A-BD87-F30368D7E78A}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0B6B38-4CF2-455F-9AE7-176FA3DD0599}">
+  <dimension ref="A1:J52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.75">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="81" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="22"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="17"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="17"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="17"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="17"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="17"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="17"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="17"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="17"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J3">
+    <sortCondition ref="A2:A3"/>
+  </sortState>
+  <conditionalFormatting sqref="H1:I1 F1 F4:F52">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H52 H4:H9 H11:H15 H17:H25 H27:H41">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E42">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B42">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F52">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3 F2:F3">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52" xr:uid="{A7056937-3775-4433-8D8E-5239FC528DF7}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{67060F54-22F4-46E4-A54C-5216CA71BE5F}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{3FCEFADB-14F1-49CC-9983-D8ADC5501217}">
+      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H52 H27:H41 H11:H15 H17:H25 H4:H9" xr:uid="{49578163-2139-4BDE-B41C-0FCBC91C0BB6}">
+      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{2FF1FAE9-C8A7-423D-BBDB-1CA01CF41625}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{45C669ED-9C47-4024-8331-BF500E37EDED}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D9DD92-C939-4751-8A55-ABA6494CBB01}">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -6135,13 +7833,13 @@
     </row>
     <row r="2" spans="1:10" ht="29.25">
       <c r="A2" s="100" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>23</v>
@@ -6149,7 +7847,7 @@
       <c r="E2" s="77"/>
       <c r="F2" s="101"/>
       <c r="G2" s="100" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>62</v>
@@ -6163,13 +7861,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.5">
       <c r="A3" s="104" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -6177,10 +7875,10 @@
       <c r="E3" s="83"/>
       <c r="F3" s="105"/>
       <c r="G3" s="106" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="I3" s="106" t="s">
         <v>18</v>
@@ -6191,13 +7889,13 @@
     </row>
     <row r="4" spans="1:10" ht="43.5">
       <c r="A4" s="100" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>23</v>
@@ -6205,10 +7903,10 @@
       <c r="E4" s="88"/>
       <c r="F4" s="101"/>
       <c r="G4" s="100" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="I4" s="103" t="s">
         <v>18</v>
@@ -6219,13 +7917,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.5">
       <c r="A5" s="104" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>23</v>
@@ -6235,10 +7933,10 @@
       </c>
       <c r="F5" s="105"/>
       <c r="G5" s="104" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="I5" s="106" t="s">
         <v>18</v>
@@ -6249,13 +7947,13 @@
     </row>
     <row r="6" spans="1:10" ht="29.25">
       <c r="A6" s="100" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="D6" s="75" t="s">
         <v>23</v>
@@ -6266,7 +7964,7 @@
         <v>140</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="I6" s="103" t="s">
         <v>18</v>
@@ -6277,13 +7975,13 @@
     </row>
     <row r="7" spans="1:10" ht="43.5">
       <c r="A7" s="104" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="D7" s="81" t="s">
         <v>23</v>
@@ -6305,23 +8003,23 @@
     </row>
     <row r="8" spans="1:10" ht="87">
       <c r="A8" s="100" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="100" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="H8" s="102">
         <v>1</v>
@@ -6335,13 +8033,13 @@
     </row>
     <row r="9" spans="1:10" ht="29.25">
       <c r="A9" s="104" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="D9" s="81" t="s">
         <v>23</v>
@@ -6349,7 +8047,7 @@
       <c r="E9" s="83"/>
       <c r="F9" s="105"/>
       <c r="G9" s="106" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="H9" s="81" t="s">
         <v>62</v>
@@ -6363,23 +8061,23 @@
     </row>
     <row r="10" spans="1:10" ht="29.25">
       <c r="A10" s="100" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="100" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="H10" s="102" t="s">
         <v>27</v>
@@ -7851,42 +9549,42 @@
     <sortCondition ref="A2:A23"/>
   </sortState>
   <conditionalFormatting sqref="H1:I1 F1:F53">
-    <cfRule type="cellIs" dxfId="142" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="7" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="8" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="9" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H53">
-    <cfRule type="cellIs" dxfId="138" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="5" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="6" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F53">
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="135" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="155" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="154" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="153" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7929,11 +9627,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD98AC81-9A7A-4660-B571-6D118AEA29BA}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8161,116 +9859,178 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="145" t="s">
+    <row r="8" spans="1:10" ht="29.25">
+      <c r="A8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="146" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="145" t="s">
+      <c r="B8" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="147" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="148" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="149" t="s">
+      <c r="D8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="149" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="150" t="s">
+      <c r="G8" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="151" t="s">
+      <c r="I8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="152" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="140"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="152" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="140"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="140"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="152" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="140"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="J8" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29.25">
+      <c r="A9" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29.25">
+      <c r="A10" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5">
+      <c r="A11" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="118"/>
+      <c r="F11" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.25">
+      <c r="A12" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.25">
       <c r="A13" s="57" t="s">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>313</v>
+        <v>139</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="60"/>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="61" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>18</v>
@@ -8279,55 +10039,55 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    <row r="14" spans="1:10" ht="29.25">
       <c r="A14" s="52" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>316</v>
+        <v>326</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="55" t="s">
-        <v>25</v>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="H14" s="56">
+        <v>1</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" spans="1:10" ht="29.25">
       <c r="A15" s="57" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="61" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>27</v>
@@ -8339,25 +10099,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="29.25">
       <c r="A16" s="52" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="116" t="s">
-        <v>169</v>
+        <v>331</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="65"/>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="67" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>62</v>
@@ -8371,23 +10131,23 @@
     </row>
     <row r="17" spans="1:10" ht="29.25">
       <c r="A17" s="57" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="62" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>62</v>
@@ -8401,29 +10161,29 @@
     </row>
     <row r="18" spans="1:10" ht="29.25">
       <c r="A18" s="52" t="s">
-        <v>160</v>
+        <v>334</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>162</v>
+        <v>335</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>336</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66" t="s">
-        <v>15</v>
+      <c r="E18" s="72"/>
+      <c r="F18" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="56">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>69</v>
@@ -8431,23 +10191,23 @@
     </row>
     <row r="19" spans="1:10" ht="29.25">
       <c r="A19" s="57" t="s">
-        <v>325</v>
+        <v>204</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="61" t="s">
+      <c r="E19" s="118"/>
+      <c r="F19" s="62" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>27</v>
@@ -8459,28 +10219,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29.25">
+    <row r="20" spans="1:10" ht="57.75">
       <c r="A20" s="52" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>189</v>
+        <v>339</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>340</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="67" t="s">
+      <c r="E20" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="66" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>18</v>
@@ -8489,174 +10251,91 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="29.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="57" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="62" t="s">
-        <v>25</v>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>331</v>
+        <v>68</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="29.25">
-      <c r="A22" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="29.25">
-      <c r="A23" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="57.75">
-      <c r="A24" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>69</v>
-      </c>
+    <row r="22" spans="1:10">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>69</v>
-      </c>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
-      <c r="C27" s="52"/>
       <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="66"/>
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
@@ -8667,7 +10346,7 @@
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="65"/>
-      <c r="F28" s="67"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
     </row>
@@ -8676,8 +10355,8 @@
       <c r="B29" s="53"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="55"/>
       <c r="H29" s="56"/>
     </row>
@@ -8685,18 +10364,19 @@
       <c r="A30" s="52"/>
       <c r="B30" s="53"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="55"/>
       <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="52"/>
       <c r="B31" s="53"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="52"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="55"/>
       <c r="H31" s="56"/>
     </row>
@@ -8705,17 +10385,16 @@
       <c r="B32" s="53"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="55"/>
       <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="52"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="52"/>
       <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="66"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56"/>
@@ -8724,9 +10403,9 @@
       <c r="A34" s="52"/>
       <c r="B34" s="53"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="65"/>
-      <c r="F34" s="67"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="55"/>
       <c r="H34" s="56"/>
     </row>
@@ -8735,8 +10414,8 @@
       <c r="B35" s="53"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="55"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="55"/>
       <c r="H35" s="56"/>
     </row>
@@ -8745,17 +10424,18 @@
       <c r="B36" s="53"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="55"/>
       <c r="H36" s="56"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="55"/>
       <c r="H37" s="56"/>
     </row>
@@ -8804,17 +10484,16 @@
       <c r="B42" s="53"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="52"/>
       <c r="B43" s="53"/>
-      <c r="C43" s="52"/>
       <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="66"/>
       <c r="G43" s="55"/>
       <c r="H43" s="56"/>
@@ -8825,7 +10504,7 @@
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
       <c r="E44" s="65"/>
-      <c r="F44" s="67"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="55"/>
       <c r="H44" s="56"/>
     </row>
@@ -8833,9 +10512,9 @@
       <c r="A45" s="52"/>
       <c r="B45" s="53"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="55"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="55"/>
       <c r="H45" s="56"/>
     </row>
@@ -8844,17 +10523,18 @@
       <c r="B46" s="53"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="55"/>
       <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="52"/>
       <c r="B47" s="53"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="52"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="55"/>
       <c r="H47" s="56"/>
     </row>
@@ -8863,8 +10543,8 @@
       <c r="B48" s="53"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="55"/>
       <c r="H48" s="56"/>
     </row>
@@ -8874,7 +10554,7 @@
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
       <c r="E49" s="53"/>
-      <c r="F49" s="66"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="55"/>
       <c r="H49" s="56"/>
     </row>
@@ -8882,19 +10562,18 @@
       <c r="A50" s="52"/>
       <c r="B50" s="53"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="65"/>
-      <c r="F50" s="67"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="55"/>
       <c r="H50" s="56"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="52"/>
       <c r="B51" s="53"/>
-      <c r="C51" s="52"/>
       <c r="D51" s="52"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="55"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="55"/>
       <c r="H51" s="56"/>
     </row>
@@ -8903,7 +10582,7 @@
       <c r="B52" s="53"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="56"/>
@@ -8913,176 +10592,81 @@
       <c r="B53" s="53"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="56"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="52"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H1:I1 F1:F7 F13:F57">
-    <cfRule type="cellIs" dxfId="132" priority="17" operator="equal">
+  <conditionalFormatting sqref="H1:I1 F1:F53">
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="8" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="9" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="10" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7 H13:H57">
-    <cfRule type="cellIs" dxfId="128" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="H2:H53">
+    <cfRule type="cellIs" dxfId="148" priority="5" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7 F13:F57">
-    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
+  <conditionalFormatting sqref="F2:F53">
+    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J7 J13:J57">
-    <cfRule type="containsText" dxfId="125" priority="12" operator="containsText" text="HealthDCAT-AP">
+  <conditionalFormatting sqref="J2:J53">
+    <cfRule type="containsText" dxfId="145" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J7 J13:J57">
-    <cfRule type="containsText" dxfId="123" priority="11" operator="containsText" text="Health and NL">
+  <conditionalFormatting sqref="J2:J53">
+    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="greaterThan">
-      <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
-      <formula>"needs review"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="115" priority="2" operator="containsText" text="HealthDCAT-AP">
-      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="DCAT-AP NL">
-      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Health and NL">
-      <formula>NOT(ISERROR(SEARCH("Health and NL",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:H53 H28:H42 H2:H8 H13:H26" xr:uid="{2A32C7D3-75FA-463A-BF68-3B76762746E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47:H49 H24:H38 H2:H22" xr:uid="{2A32C7D3-75FA-463A-BF68-3B76762746E5}">
       <formula1>"0..n, 0..1, 1, 1..n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{5E2451C1-1FA6-42BF-907E-0BF14F90289A}">
       <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J26:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49" xr:uid="{C9CBD033-88AB-4840-B5DC-D786E0636705}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
       <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{4FA88F03-C3E1-4A61-AEAF-7DC76A65E608}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F13:F53" xr:uid="{C9CBD033-88AB-4840-B5DC-D786E0636705}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I13:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
       <formula1>"Identical to v1, Adapted from v1, new"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 J13:J25" xr:uid="{924923CF-D332-45CE-8F54-FF1AFD8AFC9D}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{4FA88F03-C3E1-4A61-AEAF-7DC76A65E608}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21" xr:uid="{924923CF-D332-45CE-8F54-FF1AFD8AFC9D}">
       <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1, Health and NL"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" location="terms-publisher" xr:uid="{402E0331-C7FD-45DA-B86E-19A2B3FA6EAF}"/>
-    <hyperlink ref="C25" r:id="rId2" location="terms-title" xr:uid="{BD8E3CB4-1EC3-4556-A50A-36927CAF3730}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{2EDA5537-713B-44F0-B95C-EC0FE870CDC4}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{F932A3CB-8EFE-4EC8-A866-9D436156378C}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{336390E3-C494-4C9F-BD85-4BDA269484A0}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{34DE2D61-6E14-42AE-9558-EE775580236F}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{97F9B13C-EFF8-43D1-B733-46E03E4766B7}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{2DAE281E-1462-4EB6-B349-CF7B6187324F}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{80F65FCA-B4F6-4123-A840-F242D8504306}"/>
+    <hyperlink ref="C14" r:id="rId1" location="terms-publisher" xr:uid="{402E0331-C7FD-45DA-B86E-19A2B3FA6EAF}"/>
+    <hyperlink ref="C21" r:id="rId2" location="terms-title" xr:uid="{BD8E3CB4-1EC3-4556-A50A-36927CAF3730}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{F932A3CB-8EFE-4EC8-A866-9D436156378C}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{2EDA5537-713B-44F0-B95C-EC0FE870CDC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9148,14 +10732,14 @@
         <v>216</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>218</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>15</v>
@@ -9174,14 +10758,14 @@
         <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="38" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>15</v>
@@ -9197,11 +10781,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="34" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="41"/>
@@ -9209,7 +10793,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="3"/>
@@ -9251,7 +10835,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H6" s="35">
         <v>1</v>
@@ -9261,7 +10845,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="37" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="44" t="s">
@@ -9286,14 +10870,14 @@
         <v>137</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>25</v>
@@ -9312,14 +10896,14 @@
         <v>187</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>25</v>
@@ -9360,14 +10944,14 @@
         <v>160</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>15</v>
@@ -9386,7 +10970,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>50</v>
@@ -9407,10 +10991,10 @@
     </row>
     <row r="13" spans="1:10" ht="43.5">
       <c r="A13" s="37" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>31</v>
@@ -9434,7 +11018,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>80</v>
@@ -9443,13 +11027,13 @@
         <v>81</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>62</v>
@@ -9459,23 +11043,23 @@
     </row>
     <row r="15" spans="1:10" ht="72">
       <c r="A15" s="37" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="38" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>27</v>
@@ -9488,14 +11072,14 @@
         <v>204</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="41" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>25</v>
@@ -9955,42 +11539,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1 F1:F53">
-    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="7" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="8" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="10" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H53">
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F53">
-    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="105" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="135" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10076,10 +11660,10 @@
     </row>
     <row r="2" spans="1:10" ht="60.75" customHeight="1">
       <c r="A2" s="52" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>12</v>
@@ -10094,7 +11678,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H2" s="56">
         <v>1</v>
@@ -10111,7 +11695,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>31</v>
@@ -10138,10 +11722,10 @@
     </row>
     <row r="4" spans="1:10" ht="60.75" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>47</v>
@@ -10150,13 +11734,13 @@
         <v>23</v>
       </c>
       <c r="E4" s="121" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>27</v>
@@ -10170,10 +11754,10 @@
     </row>
     <row r="5" spans="1:10" ht="60.75" customHeight="1">
       <c r="A5" s="57" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>50</v>
@@ -10242,7 +11826,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>27</v>
@@ -10256,10 +11840,10 @@
     </row>
     <row r="8" spans="1:10" ht="60.75" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>66</v>
@@ -10286,19 +11870,19 @@
     </row>
     <row r="9" spans="1:10" ht="60.75" customHeight="1">
       <c r="A9" s="57" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D9" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>25</v>
@@ -10318,13 +11902,13 @@
     </row>
     <row r="10" spans="1:10" ht="60.75" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>23</v>
@@ -10351,7 +11935,7 @@
         <v>267</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>269</v>
@@ -10364,7 +11948,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>27</v>
@@ -10378,11 +11962,11 @@
     </row>
     <row r="12" spans="1:10" ht="60.75" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="52" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>23</v>
@@ -10406,7 +11990,7 @@
     </row>
     <row r="13" spans="1:10" ht="81.75" customHeight="1">
       <c r="A13" s="57" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="59" t="s">
@@ -10437,7 +12021,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>119</v>
@@ -10464,25 +12048,25 @@
     </row>
     <row r="15" spans="1:10" ht="60.75" customHeight="1">
       <c r="A15" s="57" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F15" s="117" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>27</v>
@@ -10524,10 +12108,10 @@
     </row>
     <row r="17" spans="1:10" ht="60.75" customHeight="1">
       <c r="A17" s="57" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>276</v>
@@ -10540,7 +12124,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H17" s="63">
         <v>1</v>
@@ -10610,10 +12194,10 @@
     </row>
     <row r="20" spans="1:10" ht="60.75" customHeight="1">
       <c r="A20" s="52" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>162</v>
@@ -10640,13 +12224,13 @@
     </row>
     <row r="21" spans="1:10" ht="60.75" customHeight="1">
       <c r="A21" s="57" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>23</v>
@@ -10670,10 +12254,10 @@
     </row>
     <row r="22" spans="1:10" ht="60.75" customHeight="1">
       <c r="A22" s="52" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>213</v>
@@ -10682,7 +12266,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>15</v>
@@ -10705,7 +12289,7 @@
         <v>216</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C23" s="59" t="s">
         <v>218</v>
@@ -11095,42 +12679,42 @@
     <sortCondition ref="A2:A23"/>
   </sortState>
   <conditionalFormatting sqref="H1:I1 F1:F53">
-    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="8" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="9" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="10" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H53">
-    <cfRule type="cellIs" dxfId="98" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F53">
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="95" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="123" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11164,8 +12748,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F507EB-9201-48ED-BA4A-FAE0A681069A}">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859835D6-9178-436C-B530-3E4F4F50B3DD}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11220,7 +12804,1607 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="75" t="s">
-        <v>408</v>
+        <v>380</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="137"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="86">
+        <v>1</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A4" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10" ht="29.25">
+      <c r="A5" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.25">
+      <c r="A7" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="87"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="34"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="34"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="34"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="34"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="34"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="34"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="34"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="34"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="34"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="34"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="34"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="34"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="34"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="34"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="34"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="34"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="34"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="34"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="34"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="34"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="34"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="34"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="34"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="34"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="34"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="34"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="34"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="34"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="34"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="34"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="34"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="34"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="34"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="34"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="34"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="34"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="34"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="34"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="34"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="34"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="34"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="34"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:I1 F1:F52">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H52">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F52">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J52">
+    <cfRule type="containsText" dxfId="115" priority="2" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J52">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49:H51 H26:H40 H10:H14 H16:H24 H2:H4 H6:H8" xr:uid="{4C2F1197-40B3-4737-BBE0-03332E264612}">
+      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{EC4F5AC8-538F-4A97-9DFC-AE9BC545A0D5}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{F7760895-D816-4A2F-8CE6-9AF6F0CC3407}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{9EE8D580-2D09-4897-BABB-959593F1265A}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{E358DAA2-19F8-4C2E-92E3-62BB5E1BA010}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{F88F9E5F-A86A-4028-A73A-6748670C46AF}">
+      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7C63A669-9D84-43BC-9DAC-1D1EFC6ECBDA}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{9F38ED7F-6CD2-469F-A6D8-363D1AD002A9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4A01-9C4F-4707-80AB-1E2CB3517446}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="30" customFormat="1" ht="57.75">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29.25">
+      <c r="A2" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="79">
+        <v>1</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="86">
+        <v>1</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="34"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="34"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="34"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="34"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="34"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="34"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="34"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="34"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="34"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="34"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="34"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="34"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="34"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="34"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="34"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="34"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="34"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="34"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="34"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="34"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="34"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="34"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="34"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="34"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="34"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="34"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="34"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="34"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="34"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="34"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="34"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="34"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="34"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
+  <conditionalFormatting sqref="F4:F47">
+    <cfRule type="cellIs" dxfId="112" priority="17" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="18" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="19" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H47">
+    <cfRule type="cellIs" dxfId="108" priority="15" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F47">
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J47">
+    <cfRule type="containsText" dxfId="105" priority="12" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="13" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J47">
+    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1 F1:F3">
+    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="10" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="containsText" dxfId="95" priority="2" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="3" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{91F30CE1-4E4A-48AE-B9D9-B7DDB16959D1}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{D2C1CD49-36F0-4579-8160-A8C6DE3B8216}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44:H46 H21:H35 H11:H19 H2:H4 H6:H9" xr:uid="{FB92A440-E8A1-40B4-AA1C-3A15C168B336}">
+      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{76F09440-61FB-4471-8D3A-641F50693F7F}">
+      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{235E9C80-91EA-4385-B09D-9287CCBD8BD4}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46" xr:uid="{A7779F0D-9E11-4AC9-B810-4676C4733A74}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{79DDBF94-8030-4E1D-9194-3AB12BA5683D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F507EB-9201-48ED-BA4A-FAE0A681069A}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="A1:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="30" customFormat="1" ht="57.75">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="75" t="s">
+        <v>429</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="75" t="s">
@@ -11234,7 +14418,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="H2" s="79" t="s">
         <v>27</v>
@@ -11246,13 +14430,13 @@
     </row>
     <row r="3" spans="1:10" ht="101.25">
       <c r="A3" s="81" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>23</v>
@@ -11279,7 +14463,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>107</v>
@@ -11301,24 +14485,24 @@
         <v>58</v>
       </c>
       <c r="J4" s="80" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29.25">
       <c r="A5" s="123" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="C5" s="123" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="F5" s="125" t="s">
         <v>15</v>
@@ -11341,7 +14525,7 @@
         <v>219</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C6" s="129" t="s">
         <v>221</v>
@@ -11350,7 +14534,7 @@
         <v>169</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>25</v>
@@ -11370,13 +14554,13 @@
     </row>
     <row r="7" spans="1:10" ht="57.75">
       <c r="A7" s="123" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C7" s="123" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D7" s="123" t="s">
         <v>23</v>
@@ -12020,7 +15204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F65B8-E42B-417A-AE06-83574CE64A72}">
   <dimension ref="A1:J53"/>
   <sheetViews>
@@ -12077,13 +15261,13 @@
     </row>
     <row r="2" spans="1:10" ht="57.75">
       <c r="A2" s="75" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C2" s="129" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>23</v>
@@ -12107,13 +15291,13 @@
     </row>
     <row r="3" spans="1:10" ht="29.25">
       <c r="A3" s="81" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="D3" s="131" t="s">
         <v>23</v>
@@ -12137,13 +15321,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="75" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>23</v>
@@ -12153,7 +15337,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H4" s="79">
         <v>1</v>
@@ -12819,1427 +16003,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED35DC-FECA-41E4-9CA3-956572264BDD}">
-  <dimension ref="A1:J52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="57.75">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.5">
-      <c r="A2" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>433</v>
-      </c>
-      <c r="H2" s="80">
-        <v>1</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="72.75">
-      <c r="A3" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="H3" s="87">
-        <v>1</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="22"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="17"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="17"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="17"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="17"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="17"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="17"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="17"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="17"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J3">
-    <sortCondition ref="A2:A3"/>
-  </sortState>
-  <conditionalFormatting sqref="H1:I1 F1 F4:F52">
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H52 H4:H9 H11:H15 H17:H25 H27:H41">
-    <cfRule type="cellIs" dxfId="68" priority="20" operator="greaterThan">
-      <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
-      <formula>"needs review"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:E42">
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B42">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F52">
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3 E2:E3">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F2:F3" xr:uid="{B60965F0-C158-4FE2-A83E-31FA6BACB63D}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H52 H27:H41 H11:H15 H17:H25 H4:H9" xr:uid="{91D2842D-234C-41A8-B9AC-B1C1BA0028BA}">
-      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576 I2:I3" xr:uid="{88F23685-CF60-4089-9C10-A94C84E53503}">
-      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576 J2:J3" xr:uid="{1E2B4D28-FB95-46C5-89A7-019BD612914E}">
-      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F52 E2:E3" xr:uid="{A14FBDED-822B-4EF3-906E-97784B24FE1D}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{A2706E80-B178-4A4A-BD87-F30368D7E78A}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0B6B38-4CF2-455F-9AE7-176FA3DD0599}">
-  <dimension ref="A1:J52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="57.75">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="95" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="132" t="s">
-        <v>439</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>442</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="22"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="17"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="17"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="17"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="17"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="17"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="17"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="17"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="17"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J3">
-    <sortCondition ref="A2:A3"/>
-  </sortState>
-  <conditionalFormatting sqref="H1:I1 F1 F4:F52">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H52 H4:H9 H11:H15 H17:H25 H27:H41">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
-      <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
-      <formula>"needs review"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:E42">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B42">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F52">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3 F2:F3">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52" xr:uid="{A7056937-3775-4433-8D8E-5239FC528DF7}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{67060F54-22F4-46E4-A54C-5216CA71BE5F}">
-      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{3FCEFADB-14F1-49CC-9983-D8ADC5501217}">
-      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H52 H27:H41 H11:H15 H17:H25 H4:H9" xr:uid="{49578163-2139-4BDE-B41C-0FCBC91C0BB6}">
-      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{2FF1FAE9-C8A7-423D-BBDB-1CA01CF41625}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{45C669ED-9C47-4024-8331-BF500E37EDED}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14486,16 +16256,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14503,5 +16276,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
 </file>